--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H2">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I2">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J2">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N2">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O2">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P2">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q2">
-        <v>21.7830225816359</v>
+        <v>28.87114936995111</v>
       </c>
       <c r="R2">
-        <v>21.7830225816359</v>
+        <v>259.84034432956</v>
       </c>
       <c r="S2">
-        <v>0.05396298669041952</v>
+        <v>0.06449388887924021</v>
       </c>
       <c r="T2">
-        <v>0.05396298669041952</v>
+        <v>0.06449388887924021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H3">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I3">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J3">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N3">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O3">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P3">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q3">
-        <v>48.98248134486549</v>
+        <v>63.23689884042555</v>
       </c>
       <c r="R3">
-        <v>48.98248134486549</v>
+        <v>569.13208956383</v>
       </c>
       <c r="S3">
-        <v>0.1213440870738055</v>
+        <v>0.1412619038688817</v>
       </c>
       <c r="T3">
-        <v>0.1213440870738055</v>
+        <v>0.1412619038688818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H4">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I4">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J4">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N4">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O4">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P4">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q4">
-        <v>53.21562356308498</v>
+        <v>68.78278728604111</v>
       </c>
       <c r="R4">
-        <v>53.21562356308498</v>
+        <v>619.04508557437</v>
       </c>
       <c r="S4">
-        <v>0.1318308318000866</v>
+        <v>0.1536506005766221</v>
       </c>
       <c r="T4">
-        <v>0.1318308318000866</v>
+        <v>0.1536506005766221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H5">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I5">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J5">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N5">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O5">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P5">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q5">
-        <v>49.13958966192109</v>
+        <v>51.45894465779866</v>
       </c>
       <c r="R5">
-        <v>49.13958966192109</v>
+        <v>463.130501920188</v>
       </c>
       <c r="S5">
-        <v>0.1217332908213779</v>
+        <v>0.1149516916031479</v>
       </c>
       <c r="T5">
-        <v>0.1217332908213779</v>
+        <v>0.1149516916031479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H6">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I6">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J6">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N6">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O6">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P6">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q6">
-        <v>110.4979359447844</v>
+        <v>112.7112757466844</v>
       </c>
       <c r="R6">
-        <v>110.4979359447844</v>
+        <v>1014.401481720159</v>
       </c>
       <c r="S6">
-        <v>0.2737360540467026</v>
+        <v>0.2517803638607399</v>
       </c>
       <c r="T6">
-        <v>0.2737360540467026</v>
+        <v>0.2517803638607399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H7">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I7">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J7">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N7">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O7">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P7">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q7">
-        <v>120.0473394219321</v>
+        <v>122.5960767618557</v>
       </c>
       <c r="R7">
-        <v>120.0473394219321</v>
+        <v>1103.364690856701</v>
       </c>
       <c r="S7">
-        <v>0.2973927495676079</v>
+        <v>0.2738615512113681</v>
       </c>
       <c r="T7">
-        <v>0.2973927495676079</v>
+        <v>0.2738615512113681</v>
       </c>
     </row>
   </sheetData>
